--- a/ResEditor/编号说明.xlsx
+++ b/ResEditor/编号说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="9640" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="6800" yWindow="10000" windowWidth="25600" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>系统类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,11 +69,106 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>地图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>模型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>地图</t>
+    <t>精灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水序列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类(01)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类(02)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类(03)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类(04)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类(05)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水序列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水序列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类(06)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -81,7 +176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,6 +195,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -132,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -168,11 +281,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -181,8 +307,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -512,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:N4"/>
+  <dimension ref="C1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J8" sqref="J8:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -571,15 +707,152 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="3:14">
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="3:14">
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="3:14">
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="3:14">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="3:14">
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H5:I5"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
